--- a/public/res/leaderboards/Round 1/Advanced.xlsx
+++ b/public/res/leaderboards/Round 1/Advanced.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/poker-tournament-leaderboard/public/res/leaderboards/Round 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/qts-miscellaneous/poker_tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2427CB-E9E4-7348-B40C-443564FAE5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591D879-3E81-AB49-8B18-4381FC897B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$50</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -31,12 +34,21 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Advait Agrawal</t>
+  </si>
+  <si>
     <t>Alice Lu</t>
   </si>
   <si>
+    <t>Alix Zhu</t>
+  </si>
+  <si>
     <t>Brendan Zou</t>
   </si>
   <si>
+    <t xml:space="preserve">Byron Liang </t>
+  </si>
+  <si>
     <t>Cyle Ryan</t>
   </si>
   <si>
@@ -73,12 +85,18 @@
     <t>Hamza Qureshi</t>
   </si>
   <si>
+    <t>Hoang Tu Vu</t>
+  </si>
+  <si>
     <t>Hui Yan Hei</t>
   </si>
   <si>
     <t>Jack Edwards</t>
   </si>
   <si>
+    <t>Jared Wong</t>
+  </si>
+  <si>
     <t>Jim Hsiao</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t>Leslie Nguyen</t>
   </si>
   <si>
+    <t>Long Do Dinh</t>
+  </si>
+  <si>
     <t>Long Ha</t>
   </si>
   <si>
@@ -112,6 +133,9 @@
     <t>Nick Davaritorshiz</t>
   </si>
   <si>
+    <t>Nikunj Vashist</t>
+  </si>
+  <si>
     <t>Patrick Grave</t>
   </si>
   <si>
@@ -125,6 +149,9 @@
   </si>
   <si>
     <t>Svarnim Agarwal</t>
+  </si>
+  <si>
+    <t>Thomas Ross</t>
   </si>
   <si>
     <t>Vance Lam</t>
@@ -170,7 +197,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -515,15 +541,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="250" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -564,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -575,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -586,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -597,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -988,10 +1016,100 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
-    <sortCondition ref="B1:B42"/>
-  </sortState>
+  <autoFilter ref="A1:C50" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+      <sortCondition ref="B1:B50"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>